--- a/Day-03 (11-10-2025)/Day-03(1) (10-10-2025) Functions.xlsx
+++ b/Day-03 (11-10-2025)/Day-03(1) (10-10-2025) Functions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIG\Excel-Tutorial\URI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DECFE57-DC0A-4B4C-A944-32D7C9D9B1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7051F852-EC0B-4149-8EFF-6F425829CF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text-Functions" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16735" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16741" uniqueCount="229">
   <si>
     <t>Brand Name</t>
   </si>
@@ -722,6 +722,12 @@
   </si>
   <si>
     <t>340P</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>AREA</t>
   </si>
 </sst>
 </file>
@@ -1509,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:XFD67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1735,7 +1741,7 @@
         <v>=MODE(B2:B11)</v>
       </c>
     </row>
-    <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>225</v>
       </c>
@@ -1759,7 +1765,7 @@
         <v>250K340P</v>
       </c>
     </row>
-    <row r="17" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" t="e">
@@ -1785,23 +1791,23 @@
         <v>Error</v>
       </c>
     </row>
-    <row r="19" spans="1:8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="str">
         <f>LOWER(A22)</f>
         <v>quick brown fox jumps over the lazy dog</v>
       </c>
     </row>
-    <row r="22" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
@@ -1809,7 +1815,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f ca="1">_xlfn.FORMULATEXT(A21)</f>
         <v>=LOWER(A22)</v>
@@ -1823,7 +1829,7 @@
         <v>a p j abdul kalam</v>
       </c>
     </row>
-    <row r="24" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F24" t="str">
         <f t="shared" ref="F24:F25" ca="1" si="2">_xlfn.FORMULATEXT(H24)</f>
         <v>=UPPER(H22)</v>
@@ -1833,7 +1839,7 @@
         <v>A P J ABDUL KALAM</v>
       </c>
     </row>
-    <row r="25" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f ca="1">_xlfn.FORMULATEXT(A27)</f>
         <v>=UPPER(A26)</v>
@@ -1847,18 +1853,18 @@
         <v>A P J Abdul Kalam</v>
       </c>
     </row>
-    <row r="26" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>UPPER(A26)</f>
         <v>I HAVE A TEXT ALL IN LOWER CASE</v>
       </c>
     </row>
-    <row r="29" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f ca="1">_xlfn.FORMULATEXT(A30)</f>
         <v>=PROPER(A22)</v>
@@ -1868,18 +1874,18 @@
         <v>=FORMULATEXT(A30)</v>
       </c>
     </row>
-    <row r="30" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>PROPER(A22)</f>
         <v>Quick Brown Fox Jumps Over The Lazy Dog</v>
       </c>
     </row>
-    <row r="33" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>LEN(A33)</f>
         <v>87</v>
@@ -1889,7 +1895,7 @@
         <v>=LEN(A33)</v>
       </c>
     </row>
-    <row r="35" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>TRIM(A33)</f>
         <v>Decent people wake up early in the morning</v>
@@ -1899,7 +1905,7 @@
         <v>=TRIM(A33)</v>
       </c>
     </row>
-    <row r="36" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>LEN(TRIM(A33))</f>
         <v>42</v>
@@ -1909,7 +1915,7 @@
         <v>=LEN(TRIM(A33))</v>
       </c>
     </row>
-    <row r="39" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -1932,7 +1938,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>_xlfn.CONCAT(A39," ",B39," ",C39," ",D39," ",E39," ",F39," ",G39)</f>
         <v>Good People Work Hard To Bring Success</v>
@@ -1942,7 +1948,7 @@
         <v>=CONCAT(A39," ",B39," ",C39," ",D39," ",E39," ",F39," ",G39)</v>
       </c>
     </row>
-    <row r="41" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>A39&amp;" "&amp;B39&amp;" "&amp;C39&amp;" "&amp;D39&amp;" "&amp;E39&amp;" "&amp;F39&amp;" "&amp;G39</f>
         <v>Good People Work Hard To Bring Success</v>
@@ -1952,7 +1958,7 @@
         <v>=A39&amp;" "&amp;B39&amp;" "&amp;C39&amp;" "&amp;D39&amp;" "&amp;E39&amp;" "&amp;F39&amp;" "&amp;G39</v>
       </c>
     </row>
-    <row r="42" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>_xlfn.TEXTJOIN(" ",TRUE,A39:H39)</f>
         <v>Good People Work Hard To Bring Success</v>
@@ -1962,7 +1968,7 @@
         <v>=TEXTJOIN(" ",TRUE,A39:H39)</v>
       </c>
     </row>
-    <row r="44" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>_xlfn.TEXTJOIN(" ",TRUE,A39:G39,A22)</f>
         <v>Good People Work Hard To Bring Success QUICK BROWN FOX JUMPS OVER THE LAZY DOG</v>
@@ -1972,7 +1978,7 @@
         <v>=TEXTJOIN(" ",TRUE,A39:G39,A22)</v>
       </c>
     </row>
-    <row r="47" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <f>SEARCH("fox",A22)</f>
         <v>13</v>
@@ -1985,7 +1991,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="e">
         <f>FIND("Fox",A22)</f>
         <v>#VALUE!</v>
@@ -51234,7 +51240,7 @@
         <v>=UNICHAR(2821)</v>
       </c>
     </row>
-    <row r="65" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>_xlfn.UNICODE(A64)</f>
         <v>2821</v>
@@ -51252,7 +51258,7 @@
         <v>=UNICODE(A64)</v>
       </c>
     </row>
-    <row r="67" spans="1:5" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>37</v>
       </c>
@@ -52291,230 +52297,297 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CABEE3D-C5E0-4F93-AFF5-C93E88CEE380}">
   <dimension ref="A2:Q51"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:G51"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
     <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>72</v>
       </c>
+      <c r="F2" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>74</v>
       </c>
+      <c r="F3">
+        <v>23456</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
         <v>75</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>76</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4">
+        <v>34521</v>
+      </c>
+    </row>
+    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5">
+        <v>34564</v>
+      </c>
+    </row>
+    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6">
+        <v>45343</v>
+      </c>
+    </row>
+    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8">
+        <v>34443</v>
+      </c>
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9">
+        <v>4544</v>
+      </c>
+      <c r="K9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" t="str">
+        <f>VLOOKUP(K9,D3:E26,2,)</f>
+        <v>Beijing</v>
+      </c>
+      <c r="M9">
+        <f>VLOOKUP(K9,D3:F26,3,FALSE)</f>
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10">
+        <v>443235</v>
+      </c>
+      <c r="K10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" t="str">
+        <f>VLOOKUP(K10,D3:F26,2,FALSE)</f>
+        <v>Brasília</v>
+      </c>
+      <c r="M10">
+        <f>VLOOKUP(K10,D3:F26,3,FALSE)</f>
+        <v>443235</v>
+      </c>
+    </row>
+    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11">
+        <v>34444</v>
+      </c>
+    </row>
+    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12">
+        <v>7766</v>
+      </c>
+    </row>
+    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14">
+        <v>55454</v>
+      </c>
+    </row>
+    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" t="str">
-        <f>VLOOKUP(E4,A2:B26,2,FALSE)</f>
-        <v>Brussels</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(E5)</f>
-        <v>=VLOOKUP(E4,A2:B26,2,FALSE)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="E16" t="s">
         <v>96</v>
+      </c>
+      <c r="F16">
+        <v>43445</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D17" t="s">
         <v>97</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E17" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D18" t="s">
         <v>99</v>
       </c>
-      <c r="B18" t="s">
+      <c r="E18" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D19" t="s">
         <v>101</v>
       </c>
-      <c r="B19" t="s">
+      <c r="E19" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D20" t="s">
         <v>103</v>
       </c>
-      <c r="B20" t="s">
+      <c r="E20" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D21" t="s">
         <v>105</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E21" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="D22" t="s">
         <v>107</v>
       </c>
-      <c r="B22" t="s">
+      <c r="E22" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="D23" t="s">
         <v>109</v>
       </c>
-      <c r="B23" t="s">
+      <c r="E23" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="D24" t="s">
         <v>111</v>
       </c>
-      <c r="B24" t="s">
+      <c r="E24" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="D25" t="s">
         <v>113</v>
       </c>
-      <c r="B25" t="s">
+      <c r="E25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="D26" t="s">
         <v>115</v>
       </c>
-      <c r="B26" t="s">
+      <c r="E26" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
-        <f t="array" ref="A28:K29">TRANSPOSE(A3:B26)</f>
+        <f t="array" ref="A28:K29">TRANSPOSE(D3:E26)</f>
         <v>United States</v>
       </c>
       <c r="B28" t="str">
@@ -52585,7 +52658,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f t="array" ref="A32:K33">TRANSPOSE(A3:B13)</f>
+        <f t="array" ref="A32:K33">TRANSPOSE(D3:E13)</f>
         <v>United States</v>
       </c>
       <c r="B32" t="str">
@@ -52732,7 +52805,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
-        <f t="array" ref="A41:Q41">TRANSPOSE(A3:A26)</f>
+        <f t="array" ref="A41:Q41">TRANSPOSE(D3:D26)</f>
         <v>United States</v>
       </c>
       <c r="B41" t="str">
@@ -52786,7 +52859,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
-        <f t="array" ref="A42:Q42">TRANSPOSE(B3:B26)</f>
+        <f t="array" ref="A42:Q42">TRANSPOSE(E3:E26)</f>
         <v>Washington-DC</v>
       </c>
       <c r="B42" t="str">
@@ -52946,13 +53019,13 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B47" t="str">
-        <f>HLOOKUP(A11,A44:Q45,2,FALSE)</f>
+        <f>HLOOKUP(D11,A44:Q45,2,FALSE)</f>
         <v>London</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
-        <f t="array" ref="A49:O49">TRANSPOSE(A3:A26)</f>
+        <f t="array" ref="A49:O49">TRANSPOSE(D3:D26)</f>
         <v>United States</v>
       </c>
       <c r="B49" t="str">
@@ -53000,7 +53073,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
-        <f t="array" ref="A51:G51">TRANSPOSE(A3:A21)</f>
+        <f t="array" ref="A51:G51">TRANSPOSE(D3:D21)</f>
         <v>United States</v>
       </c>
       <c r="B51" t="str">
@@ -53029,9 +53102,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EC26A7-12AC-4BE4-BBCA-7C9170CB274C}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -53127,6 +53202,19 @@
       </c>
       <c r="C6" s="11" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="str">
+        <f>VLOOKUP(C11,Lookup1!D3:F26,2,FALSE)</f>
+        <v>Beijing</v>
+      </c>
+      <c r="E11">
+        <f>VLOOKUP(C11,Lookup1!D3:F26,3,FALSE)</f>
+        <v>4455</v>
       </c>
     </row>
   </sheetData>
